--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18:04:04</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,38 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18:06:15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23:54:52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>139.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23:55:07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>113.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,38 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23:56:32</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>115.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23:57:52</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>111.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,38 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>00:06:51</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>110.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,38 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>00:10:09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>126.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,6 +741,38 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>00:12:55</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>125.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,38 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>00:13:36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>131.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,38 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>00:13:41</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>139.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,38 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>00:13:46</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>112.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DatosSensores" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,414 +456,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18:03:53</t>
+          <t>00:24:36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>28.90</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>112.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18:04:04</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>18:06:15</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>23:54:52</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>139.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>23:55:07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>113.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23:56:32</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>28.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>115.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-06-04</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23:57:52</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>28.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>111.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>00:06:51</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>110.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>00:10:09</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>126.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>00:12:55</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>125.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>00:13:36</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>131.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>00:13:41</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>139.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>00:13:46</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>112.41</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>00:26:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>137.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,38 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>00:26:43</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>108.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>00:27:06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>113.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00:35:28</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>111.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,38 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>00:36:27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>127.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>00:36:38</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>138.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,38 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01:00:40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>136.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,38 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01:18:03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>108.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,6 +741,38 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01:18:34</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>138.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,38 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01:18:42</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>109.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,38 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01:19:49</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>132.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,38 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01:28:37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>110.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,6 +869,38 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01:29:15</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>114.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,6 +901,38 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01:29:34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>112.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,38 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13:20:04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13:31:49</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,38 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13:32:10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,38 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13:32:15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13:32:19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,38 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22:57:20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>152.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23:02:30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>137.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,38 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23:11:30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>146.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,38 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23:12:34</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>127.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,6 +741,38 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23:13:43</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>137.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,38 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23:14:04</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,38 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23:14:14</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>136.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,38 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23:14:37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>141.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,6 +869,38 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23:14:54</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>130.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,6 +901,38 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23:15:11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.70</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>136.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,38 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23:15:21</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.70</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>125.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +965,38 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23:15:50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>30.70</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>141.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,6 +997,38 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23:16:32</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.80</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,6 +1029,38 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>09:40:54</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>467.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,38 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>09:41:44</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>256.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,6 +1093,38 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10:59:51</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>179.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,6 +1125,38 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11:01:34</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>136.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +1157,38 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11:07:35</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,38 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11:08:04</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>105.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,6 +1221,38 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11:09:38</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,6 +1253,38 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11:11:43</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>73.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,6 +1285,38 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>11:26:16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>130.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,6 +1317,38 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11:26:51</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>134.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,6 +1349,38 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11:27:06</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,6 +1381,38 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10:13:16</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>305.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1413,6 +1413,38 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10:28:36</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>35.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1445,6 +1445,38 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10:29:14</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,6 +1477,38 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10:34:12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,6 +1509,38 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21:43:39</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>481.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,6 +1541,38 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>21:44:46</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>334.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sensores.xlsx
+++ b/datos_sensores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,6 +1573,38 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>21:44:57</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>317.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
